--- a/04-abril/3_FENIX/FENIX.xlsx
+++ b/04-abril/3_FENIX/FENIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\3_FENIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\3_FENIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BA841-CEDA-4534-B18C-25A4F39DF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCD5A1-D43E-456E-8661-2857444B9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27750" yWindow="2025" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>SMITH</t>
   </si>
   <si>
-    <t>MARZO 2025</t>
+    <t>ABRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,32 +594,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>1380951</v>
+        <v>1453406.9</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>+B7+C7</f>
-        <v>1380951</v>
+        <v>1453406.9</v>
       </c>
       <c r="E7" s="6">
-        <v>232863.48</v>
+        <v>238892.38</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f>+E7+F7</f>
-        <v>232863.48</v>
+        <v>238892.38</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>1613814.48</v>
+        <v>1692299.2799999998</v>
       </c>
       <c r="I7" s="6">
         <f>+H7</f>
-        <v>1613814.48</v>
+        <v>1692299.2799999998</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -628,32 +628,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>1292620.2</v>
+        <v>1360441.5</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ref="D8:D9" si="0">+B8+C8</f>
-        <v>1292620.2</v>
+        <v>1360441.5</v>
       </c>
       <c r="E8" s="6">
-        <v>217968.66</v>
+        <v>225807.18</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ref="G8:G9" si="1">+E8+F8</f>
-        <v>217968.66</v>
+        <v>225807.18</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H9" si="2">+D8+G8</f>
-        <v>1510588.8599999999</v>
+        <v>1586248.68</v>
       </c>
       <c r="I8" s="6">
         <f>+H8</f>
-        <v>1510588.8599999999</v>
+        <v>1586248.68</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -662,32 +662,32 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>562455</v>
+        <v>591965.9</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>562455</v>
+        <v>591965.9</v>
       </c>
       <c r="E9" s="6">
-        <v>94844.27</v>
+        <v>98137.37</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>94844.27</v>
+        <v>98137.37</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>657299.27</v>
+        <v>690103.27</v>
       </c>
       <c r="I9" s="6">
         <f>+H9*2</f>
-        <v>1314598.54</v>
+        <v>1380206.54</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -695,7 +695,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="7">
         <f t="shared" ref="B10:I10" si="3">SUM(B7:B9)</f>
-        <v>3236026.2</v>
+        <v>3405814.3</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:H10" si="4">SUM(C7:C9)</f>
@@ -703,11 +703,11 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="4"/>
-        <v>3236026.2</v>
+        <v>3405814.3</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="4"/>
-        <v>545676.41</v>
+        <v>562836.92999999993</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
@@ -715,15 +715,15 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="4"/>
-        <v>545676.41</v>
+        <v>562836.92999999993</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>3781702.61</v>
+        <v>3968651.23</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>4439001.88</v>
+        <v>4658754.5</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -783,7 +783,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12">
-        <v>1527379.83</v>
+        <v>1603626.81</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -870,14 +870,14 @@
         <v>4</v>
       </c>
       <c r="C21" s="12">
-        <v>39438</v>
+        <v>50768.98</v>
       </c>
       <c r="D21" s="12">
-        <v>38710.800000000003</v>
+        <v>48108.800000000003</v>
       </c>
       <c r="E21" s="12">
         <f>+C21-D21</f>
-        <v>727.19999999999709</v>
+        <v>2660.1800000000003</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
